--- a/SelectivityModels/models/Regression/OUTPUT/EvaluationResults_withSemiSel.xlsx
+++ b/SelectivityModels/models/Regression/OUTPUT/EvaluationResults_withSemiSel.xlsx
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7079655989000502</v>
+        <v>0.7137416098462077</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05161117159914689</v>
+        <v>0.05019111003300456</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8980104712041885</v>
+        <v>0.898743455497382</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01649685237053079</v>
+        <v>0.01606285202188616</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8560292204360652</v>
+        <v>0.8620498369646896</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07987532285592472</v>
+        <v>0.07326234427107983</v>
       </c>
     </row>
     <row r="5">
@@ -512,10 +512,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.504590017825312</v>
+        <v>0.5051207346574993</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08435512427701505</v>
+        <v>0.08520665744901536</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9813339999999999</v>
+        <v>0.9821</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01098159146118668</v>
+        <v>0.01155750485041416</v>
       </c>
     </row>
     <row r="7">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6304803258914464</v>
+        <v>0.6322200896668806</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07414334122515648</v>
+        <v>0.07228887897531978</v>
       </c>
     </row>
     <row r="8">
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.886552834892112</v>
+        <v>0.8872344691826819</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02022538496413817</v>
+        <v>0.0196144968532882</v>
       </c>
     </row>
     <row r="9">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7856331404281337</v>
+        <v>0.7867248805998628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04139026117572324</v>
+        <v>0.04030718596036099</v>
       </c>
     </row>
     <row r="10">
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7429640736172211</v>
+        <v>0.7436111899269156</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04195694164996286</v>
+        <v>0.04195348795330237</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6057454424435504</v>
+        <v>0.6089300837940356</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07453271859117086</v>
+        <v>0.07088892424805661</v>
       </c>
     </row>
     <row r="12">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9036300000000002</v>
+        <v>0.903814</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01476049954909302</v>
+        <v>0.01473492325277963</v>
       </c>
     </row>
     <row r="13">
@@ -640,10 +640,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7429640736172211</v>
+        <v>0.7436111899269156</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04195694164996285</v>
+        <v>0.04195348795330234</v>
       </c>
     </row>
   </sheetData>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7169854819661916</v>
+        <v>0.7237708077981441</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04286545490693675</v>
+        <v>0.04431002561367556</v>
       </c>
     </row>
     <row r="3">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8968586387434556</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01838936552452393</v>
+        <v>0.01805163558137198</v>
       </c>
     </row>
     <row r="4">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8224536360298442</v>
+        <v>0.839621112007205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07427335683894429</v>
+        <v>0.08428257878115385</v>
       </c>
     </row>
     <row r="5">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5248523682200154</v>
+        <v>0.535662910618793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0911666416939866</v>
+        <v>0.09164656429559094</v>
       </c>
     </row>
     <row r="6">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.975626</v>
+        <v>0.977162</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01128379386915733</v>
+        <v>0.01410768917567832</v>
       </c>
     </row>
     <row r="7">
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6365943670691171</v>
+        <v>0.6485324070412116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07966928811239109</v>
+        <v>0.07538205089187128</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8868597922324178</v>
+        <v>0.8904213490170362</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02205706157921511</v>
+        <v>0.02112885433552696</v>
       </c>
     </row>
     <row r="9">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7882177234253908</v>
+        <v>0.7950841674140379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04472358575730776</v>
+        <v>0.0424146750417171</v>
       </c>
     </row>
     <row r="10">
@@ -820,10 +820,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7502418301366237</v>
+        <v>0.7564082282907603</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04598051028345715</v>
+        <v>0.04518290398574542</v>
       </c>
     </row>
     <row r="11">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6024780115286605</v>
+        <v>0.6173994915816988</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08088616860327479</v>
+        <v>0.07711209846562808</v>
       </c>
     </row>
     <row r="12">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.90676</v>
+        <v>0.9088540000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01605659633030256</v>
+        <v>0.01613892758746595</v>
       </c>
     </row>
     <row r="13">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7502418301366237</v>
+        <v>0.7564082282907603</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04598051028345713</v>
+        <v>0.04518290398574541</v>
       </c>
     </row>
   </sheetData>
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7428340355937243</v>
+        <v>0.7436888401182444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04235124708045528</v>
+        <v>0.04257422999643389</v>
       </c>
     </row>
     <row r="3">
@@ -936,10 +936,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9004188481675393</v>
+        <v>0.9012565445026177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0202495163653064</v>
+        <v>0.01895146864927834</v>
       </c>
     </row>
     <row r="4">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8194971049445466</v>
+        <v>0.8260900309969135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08309755136899288</v>
+        <v>0.07508708545604498</v>
       </c>
     </row>
     <row r="5">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5548576521517697</v>
+        <v>0.555207060096766</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08804679334491534</v>
+        <v>0.0891774393803709</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9735980000000001</v>
+        <v>0.974622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01298659418675384</v>
+        <v>0.01313232947922875</v>
       </c>
     </row>
     <row r="7">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6581978084666781</v>
+        <v>0.6600560089027289</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07904248235201355</v>
+        <v>0.074730904644722</v>
       </c>
     </row>
     <row r="8">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.892124704542375</v>
+        <v>0.892833505743799</v>
       </c>
       <c r="D8" t="n">
-        <v>0.023130959179099</v>
+        <v>0.02189482479449176</v>
       </c>
     </row>
     <row r="9">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7999323180301812</v>
+        <v>0.8011191828245071</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04504222805942704</v>
+        <v>0.04248145606026136</v>
       </c>
     </row>
     <row r="10">
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7642257617822104</v>
+        <v>0.764908035263326</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04556687681602963</v>
+        <v>0.04486415568021546</v>
       </c>
     </row>
     <row r="11">
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6203674441392377</v>
+        <v>0.6238796089843015</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08482750936021184</v>
+        <v>0.07859687146754231</v>
       </c>
     </row>
     <row r="12">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9119280000000001</v>
+        <v>0.91205</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0160215676065555</v>
+        <v>0.01640868672380577</v>
       </c>
     </row>
     <row r="13">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7642257617822104</v>
+        <v>0.764908035263326</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04556687681602962</v>
+        <v>0.04486415568021545</v>
       </c>
     </row>
   </sheetData>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7167252170871846</v>
+        <v>0.7163453738637385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05083772211340292</v>
+        <v>0.04466161399986224</v>
       </c>
     </row>
     <row r="3">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9051308900523558</v>
+        <v>0.9075392670157069</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01864284888713885</v>
+        <v>0.01949278198374421</v>
       </c>
     </row>
     <row r="4">
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8012715349015224</v>
+        <v>0.8079197795901624</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08504243846726392</v>
+        <v>0.07156676547607889</v>
       </c>
     </row>
     <row r="5">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6185259421950599</v>
+        <v>0.622206550802139</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08176926649450272</v>
+        <v>0.09835036864500163</v>
       </c>
     </row>
     <row r="6">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9658580000000001</v>
+        <v>0.9680319999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01765201139027643</v>
+        <v>0.01398962355987246</v>
       </c>
     </row>
     <row r="7">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6937245697791387</v>
+        <v>0.6985813812129408</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06300522693644162</v>
+        <v>0.07494520892973978</v>
       </c>
     </row>
     <row r="8">
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.900081084136621</v>
+        <v>0.9021972592452104</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01979990721838177</v>
+        <v>0.02202423046260341</v>
       </c>
     </row>
     <row r="9">
@@ -1260,10 +1260,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8187663421899964</v>
+        <v>0.8219568583248719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03661927122720186</v>
+        <v>0.04280339391357577</v>
       </c>
     </row>
     <row r="10">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7921927385067521</v>
+        <v>0.7951162082125165</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04025895458179701</v>
+        <v>0.04887804631921126</v>
       </c>
     </row>
     <row r="11">
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6491074136246212</v>
+        <v>0.6557439089796517</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07195713447076077</v>
+        <v>0.0803677482849833</v>
       </c>
     </row>
     <row r="12">
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9230340000000001</v>
+        <v>0.9239599999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0154081691823208</v>
+        <v>0.01832716284532835</v>
       </c>
     </row>
     <row r="13">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7921927385067521</v>
+        <v>0.7951162082125165</v>
       </c>
       <c r="D13" t="n">
-        <v>0.040258954581797</v>
+        <v>0.04887804631921126</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7321331679558745</v>
+        <v>0.7379692603421592</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04055359139041173</v>
+        <v>0.04292894322339021</v>
       </c>
     </row>
     <row r="3">
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8981151832460733</v>
+        <v>0.8957068062827225</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01973804842595295</v>
+        <v>0.01678595080222053</v>
       </c>
     </row>
     <row r="4">
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8446651669573921</v>
+        <v>0.8370894390060765</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07807644390285461</v>
+        <v>0.06694894545263737</v>
       </c>
     </row>
     <row r="5">
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5146699452508277</v>
+        <v>0.5035385472370766</v>
       </c>
       <c r="D5" t="n">
-        <v>0.101327754661984</v>
+        <v>0.0890996442829423</v>
       </c>
     </row>
     <row r="6">
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9793119999999998</v>
+        <v>0.9788020000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01227455706004938</v>
+        <v>0.01065866496215684</v>
       </c>
     </row>
     <row r="7">
@@ -1456,10 +1456,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6337728541027926</v>
+        <v>0.624209215720661</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08754874976631716</v>
+        <v>0.07758895745878255</v>
       </c>
     </row>
     <row r="8">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8871199541357788</v>
+        <v>0.884279330367965</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02398261464359935</v>
+        <v>0.02108735563261568</v>
       </c>
     </row>
     <row r="9">
@@ -1488,10 +1488,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7872635222709848</v>
+        <v>0.7817992065139958</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04896724346592325</v>
+        <v>0.04316843797154366</v>
       </c>
     </row>
     <row r="10">
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.7469909813371971</v>
+        <v>0.7411684588040441</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05064679170639166</v>
+        <v>0.04399547776176307</v>
       </c>
     </row>
     <row r="11">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6062949360728894</v>
+        <v>0.5957184264445482</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08594186535658045</v>
+        <v>0.07508912676653019</v>
       </c>
     </row>
     <row r="12">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9053519999999999</v>
+        <v>0.9032119999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01784545034341201</v>
+        <v>0.01568715372005815</v>
       </c>
     </row>
     <row r="13">
@@ -1552,10 +1552,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7469909813371971</v>
+        <v>0.7411684588040441</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05064679170639165</v>
+        <v>0.04399547776176306</v>
       </c>
     </row>
   </sheetData>
